--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1485681.932658197</v>
+        <v>1550419.466836556</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>698313.6830760742</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6854793.047040843</v>
+        <v>7304657.417725372</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +661,19 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>49.53842828501017</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -725,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>58.35158191755285</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +822,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>102.0412378013748</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>218.775754413495</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>49.49512077555119</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>205.0873641277763</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1059,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>118.9693540944499</v>
       </c>
       <c r="V7" t="n">
-        <v>26.76520125564337</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1133,16 +1135,16 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>218.8905270519715</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -1151,7 +1153,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>80.11775047948045</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1291,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>7.098427391118505</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>107.699675282537</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1348,13 +1350,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1382,7 +1384,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.98795577282375</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1537,16 +1539,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>167.7124257502075</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,19 +1584,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>111.3190970511839</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>314.6596914499</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1619,13 +1621,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>341.6261201256106</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>59.70406721933355</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1774,16 +1776,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>219.2519853749286</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2002,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>113.9811728869526</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2062,13 +2064,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>214.0574188422113</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2132,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2248,16 +2250,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>221.5389288874897</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,16 +2478,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>111.1800590294273</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2530,7 +2532,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>174.5667214955129</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2713,7 +2715,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2722,16 +2724,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2776,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>76.34947650094</v>
+        <v>135.7468035496482</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2959,13 +2961,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>154.5259717924262</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>1.407937846523896</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3010,10 +3012,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>39.68963969231484</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>60.15466974967032</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3247,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3424,22 +3426,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>163.4929392938537</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>112.2192622328896</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3475,13 +3477,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3515,13 +3517,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3667,19 +3669,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,19 +3711,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>238.0472340876699</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>109.826847404852</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3755,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V41" t="n">
-        <v>245.0766042218726</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.21714144772695</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3952,19 +3954,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>71.78780711257758</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3974,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>286.2833597690637</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
@@ -3995,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4037,7 +4039,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4135,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>19.559632213204</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>187.21057685784</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4198,10 +4200,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1746.091355883837</v>
+        <v>966.965586482338</v>
       </c>
       <c r="C2" t="n">
-        <v>1723.231029937541</v>
+        <v>540.0648564956382</v>
       </c>
       <c r="D2" t="n">
-        <v>1299.938409122541</v>
+        <v>520.8126397210425</v>
       </c>
       <c r="E2" t="n">
-        <v>873.9614692703988</v>
+        <v>94.83569986890006</v>
       </c>
       <c r="F2" t="n">
-        <v>448.8372874597989</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
         <v>44.49822504924753</v>
@@ -4328,22 +4330,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>595.1637600336857</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N2" t="n">
-        <v>667.4947029893171</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O2" t="n">
-        <v>1218.160237973755</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P2" t="n">
         <v>1768.825772958194</v>
@@ -4358,22 +4360,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462377</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W2" t="n">
-        <v>1828.519902762723</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X2" t="n">
-        <v>1820.840307970875</v>
+        <v>984.0704127381697</v>
       </c>
       <c r="Y2" t="n">
-        <v>1761.899316134963</v>
+        <v>982.7735467334641</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>423.6702648437783</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>423.6702648437783</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>974.3357998282165</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L3" t="n">
-        <v>974.3357998282165</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M3" t="n">
-        <v>1525.001334812655</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N3" t="n">
-        <v>1525.001334812655</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="O3" t="n">
-        <v>1760.765775599597</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P3" t="n">
-        <v>1760.765775599597</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
-        <v>2224.911252462377</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>485.750951392604</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>313.77838827152</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>313.77838827152</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>147.5701824243736</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>147.5701824243736</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>147.5701824243736</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
@@ -4510,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1981.571904688276</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="U4" t="n">
-        <v>1701.387456188581</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="V4" t="n">
-        <v>1419.67598879661</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="W4" t="n">
-        <v>1144.823584969123</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X4" t="n">
-        <v>902.2596884149276</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y4" t="n">
-        <v>675.9169201046697</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1342.050951843433</v>
+        <v>972.9074190595574</v>
       </c>
       <c r="C5" t="n">
-        <v>915.1502218567327</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D5" t="n">
-        <v>491.857601041733</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E5" t="n">
-        <v>65.88066118959054</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>1145.829295018124</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>1696.494830002562</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1696.494830002562</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4595,22 +4597,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W5" t="n">
-        <v>2174.916180971921</v>
+        <v>1607.594331807357</v>
       </c>
       <c r="X5" t="n">
-        <v>2167.236586180072</v>
+        <v>1195.874332975104</v>
       </c>
       <c r="Y5" t="n">
-        <v>1761.899316134963</v>
+        <v>988.7153793106834</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>119.1699405917395</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L6" t="n">
-        <v>669.8354755761777</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M6" t="n">
-        <v>669.8354755761777</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>669.8354755761777</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O6" t="n">
-        <v>1220.501010560616</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>798.1056049944873</v>
+        <v>645.7643351504313</v>
       </c>
       <c r="C7" t="n">
-        <v>626.1330418734033</v>
+        <v>473.7917720293473</v>
       </c>
       <c r="D7" t="n">
-        <v>626.1330418734033</v>
+        <v>310.474999156118</v>
       </c>
       <c r="E7" t="n">
-        <v>459.9248360262568</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4732,43 +4734,43 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1861.400839946408</v>
       </c>
       <c r="V7" t="n">
-        <v>1457.178238571006</v>
+        <v>1579.689372554437</v>
       </c>
       <c r="W7" t="n">
-        <v>1457.178238571006</v>
+        <v>1304.83696872695</v>
       </c>
       <c r="X7" t="n">
-        <v>1214.614342016811</v>
+        <v>1062.273072172755</v>
       </c>
       <c r="Y7" t="n">
-        <v>988.271573706553</v>
+        <v>835.9303038624969</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1874.83396633247</v>
+        <v>1235.878926328994</v>
       </c>
       <c r="C8" t="n">
-        <v>1447.93323634577</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D8" t="n">
-        <v>1024.64061553077</v>
+        <v>1193.766383608102</v>
       </c>
       <c r="E8" t="n">
-        <v>1002.704079719032</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F8" t="n">
-        <v>781.6025372422929</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4805,49 +4807,49 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L8" t="n">
-        <v>1145.829295018124</v>
+        <v>116.829168004879</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N8" t="n">
-        <v>1145.829295018124</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O8" t="n">
-        <v>1696.494830002562</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>1899.61838738015</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>1899.61838738015</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="W8" t="n">
-        <v>1899.61838738015</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="X8" t="n">
-        <v>1891.938792588301</v>
+        <v>1252.983752584825</v>
       </c>
       <c r="Y8" t="n">
-        <v>1890.641926583596</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="9">
@@ -4887,13 +4889,13 @@
         <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>316.1957143288386</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M9" t="n">
         <v>866.8612493132769</v>
       </c>
       <c r="N9" t="n">
-        <v>866.8612493132769</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="O9" t="n">
         <v>1417.526784297715</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>376.9634006021619</v>
+        <v>962.9877020259423</v>
       </c>
       <c r="C10" t="n">
-        <v>376.9634006021619</v>
+        <v>791.0151389048583</v>
       </c>
       <c r="D10" t="n">
-        <v>376.9634006021619</v>
+        <v>627.698366031629</v>
       </c>
       <c r="E10" t="n">
-        <v>210.7551947550154</v>
+        <v>461.4901601844825</v>
       </c>
       <c r="F10" t="n">
-        <v>210.7551947550154</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2116.123701671934</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1872.784353897834</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U10" t="n">
-        <v>1592.599905398138</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V10" t="n">
-        <v>1310.888438006167</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="W10" t="n">
-        <v>1036.03603417868</v>
+        <v>1379.496439048266</v>
       </c>
       <c r="X10" t="n">
-        <v>793.4721376244854</v>
+        <v>1379.496439048266</v>
       </c>
       <c r="Y10" t="n">
-        <v>567.1293693142275</v>
+        <v>1153.153670738008</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2098.741872743728</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>1671.841142757028</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>1248.548521942028</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>822.5715820898859</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>397.4474002792861</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>397.4474002792861</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>715.2263527642958</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L11" t="n">
-        <v>715.2263527642958</v>
+        <v>1029.701992498267</v>
       </c>
       <c r="M11" t="n">
-        <v>1515.667965162099</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="N11" t="n">
-        <v>2316.109577559901</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O11" t="n">
-        <v>3116.551189957705</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.551189957705</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>2975.752615436019</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2975.752615436019</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>2975.752615436019</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>2564.032616603767</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2518.590237035258</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>64.68215049679215</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="M12" t="n">
-        <v>64.68215049679215</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N12" t="n">
-        <v>356.7304516410011</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O12" t="n">
-        <v>1157.172064038804</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>563.6136198739432</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C13" t="n">
-        <v>563.6136198739432</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D13" t="n">
-        <v>400.2968470007139</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E13" t="n">
-        <v>234.0886411535675</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>64.68215049679215</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>64.68215049679215</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>64.68215049679215</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2027.921517116229</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T13" t="n">
-        <v>1784.582169342129</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U13" t="n">
-        <v>1504.397720842433</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="V13" t="n">
-        <v>1222.686253450462</v>
+        <v>1538.265496332355</v>
       </c>
       <c r="W13" t="n">
-        <v>1222.686253450462</v>
+        <v>1425.821963957422</v>
       </c>
       <c r="X13" t="n">
-        <v>980.1223568962668</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.7795885860088</v>
+        <v>1183.258067403227</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2063.845001487199</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.944271500499</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>1213.6516506855</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>787.674710833357</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>362.5505290227573</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>362.5505290227573</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679215</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>64.68215049679215</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L14" t="n">
-        <v>865.123762894595</v>
+        <v>1392.305451315162</v>
       </c>
       <c r="M14" t="n">
-        <v>1665.565375292398</v>
+        <v>2396.59155273422</v>
       </c>
       <c r="N14" t="n">
-        <v>2466.006987690201</v>
+        <v>3372.842611220921</v>
       </c>
       <c r="O14" t="n">
-        <v>2466.006987690201</v>
+        <v>4217.987261371733</v>
       </c>
       <c r="P14" t="n">
-        <v>3174.286266848128</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>3174.286266848128</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>3234.107524839607</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>3234.107524839607</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>3234.107524839607</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>2889.030635823839</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>2483.693365778729</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>655.1670770651317</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.928168679499</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.928168679499</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N15" t="n">
-        <v>1072.928168679499</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="O15" t="n">
-        <v>1873.369781077302</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>566.1796923382519</v>
+        <v>867.4892357902974</v>
       </c>
       <c r="C16" t="n">
-        <v>394.2071292171679</v>
+        <v>867.4892357902974</v>
       </c>
       <c r="D16" t="n">
-        <v>230.8903563439386</v>
+        <v>704.1724629170681</v>
       </c>
       <c r="E16" t="n">
-        <v>64.68215049679215</v>
+        <v>537.9642570699216</v>
       </c>
       <c r="F16" t="n">
-        <v>64.68215049679215</v>
+        <v>366.102482844482</v>
       </c>
       <c r="G16" t="n">
-        <v>64.68215049679215</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H16" t="n">
-        <v>64.68215049679215</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T16" t="n">
-        <v>2001.75583013582</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="U16" t="n">
-        <v>1721.571381636125</v>
+        <v>1953.266910479596</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.104729742257</v>
+        <v>1671.555443087625</v>
       </c>
       <c r="W16" t="n">
-        <v>1225.25232591477</v>
+        <v>1396.703039260138</v>
       </c>
       <c r="X16" t="n">
-        <v>982.6884293605756</v>
+        <v>1154.139142705943</v>
       </c>
       <c r="Y16" t="n">
-        <v>756.3456610503176</v>
+        <v>927.7963743956848</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5525,13 +5527,13 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5589,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>772.98449592559</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>772.98449592559</v>
       </c>
       <c r="M18" t="n">
-        <v>305.3113489363686</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N18" t="n">
-        <v>305.3113489363686</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>675.392528877774</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C19" t="n">
-        <v>675.392528877774</v>
+        <v>380.7519841446665</v>
       </c>
       <c r="D19" t="n">
-        <v>512.0757560045447</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="E19" t="n">
-        <v>345.8675501573982</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="F19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1832.396244838396</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1550.684777446425</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1334.465162454292</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1091.901265900098</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>865.5584975898396</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5750,13 +5752,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>292.0244587153436</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1007.532766690843</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
         <v>2011.818868109901</v>
@@ -5780,22 +5782,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5831,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>2119.408873334071</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1844.556469506584</v>
+        <v>1036.530120513549</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>793.966223959354</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6063,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>703.6175873656338</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C25" t="n">
-        <v>531.6450242445497</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="D25" t="n">
-        <v>368.3282513713204</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E25" t="n">
-        <v>368.3282513713204</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F25" t="n">
-        <v>368.3282513713204</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1692.911323851352</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1411.199856459381</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1136.347452631894</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>893.7835560776994</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>893.7835560776994</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6312,19 +6314,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6409,25 +6411,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>2235.67712750613</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1953.965660114159</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1679.113256286672</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>848.3364291485279</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>621.99366083827</v>
       </c>
     </row>
     <row r="29">
@@ -6467,19 +6469,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O29" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6540,28 +6542,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1429.986740661465</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1429.986740661465</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O30" t="n">
-        <v>1429.986740661465</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P30" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1085.715267670341</v>
+        <v>759.8870954416583</v>
       </c>
       <c r="C31" t="n">
-        <v>913.7427045492574</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="D31" t="n">
-        <v>750.4259316760281</v>
+        <v>424.597759447345</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>258.3895536001985</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6649,22 +6651,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2064.119920584332</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U31" t="n">
-        <v>1783.935472084636</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V31" t="n">
-        <v>1502.224004692665</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W31" t="n">
-        <v>1502.224004692665</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X31" t="n">
-        <v>1502.224004692665</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y31" t="n">
-        <v>1275.881236382407</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="32">
@@ -6713,13 +6715,13 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6783,22 +6785,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1081.778112581972</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C34" t="n">
-        <v>909.8055494608882</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D34" t="n">
-        <v>746.4887765876589</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="E34" t="n">
-        <v>580.2805707405124</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="F34" t="n">
-        <v>408.4187965150728</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="G34" t="n">
-        <v>242.161826809305</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1832.396244838396</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1550.684777446425</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1550.684777446425</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1308.12088089223</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>1081.778112581972</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6935,22 +6937,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
         <v>5115.135670291427</v>
@@ -7011,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1191.617659878699</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1178.655655934086</v>
+        <v>653.604840768015</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>481.632277646931</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>481.632277646931</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>315.4240717997845</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>315.4240717997845</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
         <v>202.0712816655526</v>
@@ -7123,22 +7125,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338092</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>2112.580693338092</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V37" t="n">
-        <v>2112.580693338092</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W37" t="n">
-        <v>1837.728289510605</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X37" t="n">
-        <v>1595.16439295641</v>
+        <v>1070.113577790339</v>
       </c>
       <c r="Y37" t="n">
-        <v>1368.821624646152</v>
+        <v>843.7708094800807</v>
       </c>
     </row>
     <row r="38">
@@ -7163,37 +7165,37 @@
         <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7260,10 +7262,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7357,25 +7359,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2235.67712750613</v>
+        <v>1825.090328421558</v>
       </c>
       <c r="U40" t="n">
-        <v>1955.492679006434</v>
+        <v>1825.090328421558</v>
       </c>
       <c r="V40" t="n">
-        <v>1955.492679006434</v>
+        <v>1543.378861029587</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1268.5264572021</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>1025.962560647905</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>799.6197923376471</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2170.315685371786</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>1743.414955385085</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.122334570086</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1453947179433</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>469.0212129073435</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>64.68215049679215</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>780.1904584722912</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L41" t="n">
-        <v>1580.632070870094</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M41" t="n">
-        <v>2381.073683267897</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N41" t="n">
-        <v>2381.073683267897</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O41" t="n">
-        <v>2778.022045335424</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="P41" t="n">
-        <v>2778.022045335424</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>3234.107524839607</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V41" t="n">
-        <v>2986.555399362968</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>2590.164049663315</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>2590.164049663315</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2590.164049663315</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>336.3796397763832</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L42" t="n">
-        <v>336.3796397763832</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M42" t="n">
-        <v>336.3796397763832</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N42" t="n">
-        <v>693.0265871760246</v>
+        <v>1779.8768179202</v>
       </c>
       <c r="O42" t="n">
-        <v>693.0265871760246</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="P42" t="n">
-        <v>1409.224304214523</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1147.863273021029</v>
+        <v>3906.615339060613</v>
       </c>
       <c r="C43" t="n">
-        <v>975.890709899945</v>
+        <v>3734.642775939529</v>
       </c>
       <c r="D43" t="n">
-        <v>812.5739370267157</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="E43" t="n">
-        <v>646.3657311795693</v>
+        <v>3405.117797219153</v>
       </c>
       <c r="F43" t="n">
-        <v>474.5039569541296</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="G43" t="n">
-        <v>308.2469872483618</v>
+        <v>3066.999053287946</v>
       </c>
       <c r="H43" t="n">
-        <v>164.4507187565162</v>
+        <v>2923.2027847961</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679215</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T43" t="n">
-        <v>2001.75583013582</v>
+        <v>4760.507896175404</v>
       </c>
       <c r="U43" t="n">
-        <v>2001.75583013582</v>
+        <v>4480.323447675709</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.044362743849</v>
+        <v>4407.810511198358</v>
       </c>
       <c r="W43" t="n">
-        <v>1445.191958916362</v>
+        <v>4132.95810737087</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.628062362167</v>
+        <v>4132.95810737087</v>
       </c>
       <c r="Y43" t="n">
-        <v>1202.628062362167</v>
+        <v>3906.615339060613</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1056.064702311151</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>1056.064702311151</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>1056.064702311151</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>766.8895914333086</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>766.8895914333086</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>362.5505290227573</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>780.1904584722912</v>
+        <v>811.7639428804554</v>
       </c>
       <c r="L44" t="n">
-        <v>780.1904584722912</v>
+        <v>1741.388990499732</v>
       </c>
       <c r="M44" t="n">
-        <v>1580.632070870094</v>
+        <v>2745.67509191879</v>
       </c>
       <c r="N44" t="n">
-        <v>1580.632070870094</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="O44" t="n">
-        <v>2381.073683267897</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>2778.022045335424</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>2650.459750353793</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>2292.970335480043</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>2292.970335480043</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>1881.25033664779</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>1475.913066602681</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>3762.283104400451</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>3644.777200917955</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>3436.235308706178</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>3342.589478389082</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>3248.535706606686</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="J45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="K45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="L45" t="n">
-        <v>64.68215049679215</v>
+        <v>4031.958421451902</v>
       </c>
       <c r="M45" t="n">
-        <v>272.4865562816963</v>
+        <v>4031.958421451902</v>
       </c>
       <c r="N45" t="n">
-        <v>1072.928168679499</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="O45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>4922.522996510759</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>4390.901725867341</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>4194.380348700558</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>4030.903002467221</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>995.6479141557066</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="C46" t="n">
-        <v>975.890709899945</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="D46" t="n">
-        <v>812.5739370267157</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="E46" t="n">
-        <v>646.3657311795693</v>
+        <v>3405.117797219153</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541296</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483618</v>
+        <v>3066.999053287946</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>2923.2027847961</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679215</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>4956.808630636678</v>
       </c>
       <c r="S46" t="n">
-        <v>2074.960130429055</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="T46" t="n">
-        <v>2074.960130429055</v>
+        <v>4543.334235381712</v>
       </c>
       <c r="U46" t="n">
-        <v>1794.77568192936</v>
+        <v>4354.232642596015</v>
       </c>
       <c r="V46" t="n">
-        <v>1513.064214537389</v>
+        <v>4072.521175204045</v>
       </c>
       <c r="W46" t="n">
-        <v>1238.211810709902</v>
+        <v>3797.668771376558</v>
       </c>
       <c r="X46" t="n">
-        <v>995.6479141557066</v>
+        <v>3797.668771376558</v>
       </c>
       <c r="Y46" t="n">
-        <v>995.6479141557066</v>
+        <v>3571.3260030663</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>110.3411813754879</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>96.76900350898819</v>
       </c>
       <c r="O3" t="n">
-        <v>261.3177895070126</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>452.4011488286621</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>97.8252091287798</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>177.8131985346731</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8307,13 +8309,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8380,7 +8382,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>417.7126065281028</v>
+        <v>417.7126065281034</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8453,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>452.5855512828693</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,16 +8537,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>461.8305092169925</v>
@@ -8690,28 +8692,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>692.8799566205706</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>845.9581441093336</v>
+        <v>1035.799731739446</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,19 +8774,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>316.3413121975912</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
-        <v>831.698770932124</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>251.9371478624388</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>95.45816301750241</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,7 +9011,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>444.4959873348026</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9018,16 +9020,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>831.698770932124</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,16 +9175,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>625.182225377852</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>100.0581876036193</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9237,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>417.8918098719783</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>228.1560083209543</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>221.0580860608543</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9477,7 +9479,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9486,16 +9488,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>475.2939470053066</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>26.37892716579976</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9647,19 +9649,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>369.2860653765454</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>117.3609790173131</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9960,22 +9962,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1042.020405443146</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,7 +10117,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10124,13 +10126,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>238.1216346371742</v>
+        <v>716.4444307130257</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10188,7 +10190,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10197,22 +10199,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1042.020405443146</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>38.79925177260048</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10361,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P32" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,25 +10433,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>573.1865904302379</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10601,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10659,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10674,19 +10676,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>749.810964578424</v>
+        <v>420.03429863453</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10829,10 +10831,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>276.0147300838795</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10844,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11063,16 +11065,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>438.348900838375</v>
+        <v>867.7084382103637</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
@@ -11136,10 +11138,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11148,19 +11150,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>381.5924700313612</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>70.51375583797689</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>754.6403563518451</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>845.9178405659259</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>438.5333032925822</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,16 +11381,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>233.0002206990998</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>829.8699094234435</v>
+        <v>1003.048909524251</v>
       </c>
       <c r="O45" t="n">
-        <v>831.698770932124</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>356.2959415718348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2.430730732977651</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>160.7847827380282</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>65.97667871831959</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>128.5602418056114</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>59.6423673431228</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>56.16198359623262</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>58.04646094700081</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>50.56495090172237</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>50.50354611506967</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>102.8158825191858</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>163.7887810877129</v>
+        <v>104.3914540390047</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>15.61718469075893</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>239.4980164498351</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>102.6686661146123</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>38.61621282745647</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>6.759898196019407</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>52.37513777582056</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25363,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,19 +25599,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>2.858720208689135</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>162.2770323843601</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V41" t="n">
-        <v>108.8379165031404</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>134.047167577218</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25840,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>207.1065456054738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>135.4338106845573</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25925,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>150.6932052766691</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>90.17202715685875</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>469432.6714657441</v>
+        <v>623398.2802415737</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>469432.6714657441</v>
+        <v>623398.2802415738</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>633080.2634882719</v>
+        <v>633080.2634882717</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>633080.2634882717</v>
+        <v>633080.2634882719</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>633080.2634882717</v>
+        <v>633080.2634882719</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>469432.6714657442</v>
+        <v>623398.2802415737</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>469432.6714657441</v>
+        <v>623398.2802415738</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>407709.8676078143</v>
       </c>
       <c r="C2" t="n">
+        <v>407709.8676078142</v>
+      </c>
+      <c r="D2" t="n">
         <v>407709.8676078141</v>
       </c>
-      <c r="D2" t="n">
-        <v>407709.8676078142</v>
-      </c>
       <c r="E2" t="n">
-        <v>291733.7584019221</v>
+        <v>387405.0806156915</v>
       </c>
       <c r="F2" t="n">
-        <v>291733.7584019222</v>
+        <v>387405.0806156913</v>
       </c>
       <c r="G2" t="n">
-        <v>393421.2821962133</v>
+        <v>393421.2821962135</v>
       </c>
       <c r="H2" t="n">
         <v>393421.2821962135</v>
       </c>
       <c r="I2" t="n">
-        <v>393421.2821962132</v>
+        <v>393421.2821962133</v>
       </c>
       <c r="J2" t="n">
         <v>393421.2821962133</v>
       </c>
       <c r="K2" t="n">
-        <v>393421.2821962134</v>
+        <v>393421.2821962131</v>
       </c>
       <c r="L2" t="n">
+        <v>393421.2821962133</v>
+      </c>
+      <c r="M2" t="n">
         <v>393421.2821962132</v>
       </c>
-      <c r="M2" t="n">
-        <v>393421.2821962134</v>
-      </c>
       <c r="N2" t="n">
-        <v>393421.2821962134</v>
+        <v>393421.2821962133</v>
       </c>
       <c r="O2" t="n">
-        <v>291733.7584019222</v>
+        <v>387405.0806156913</v>
       </c>
       <c r="P2" t="n">
-        <v>291733.7584019222</v>
+        <v>387405.0806156912</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534622</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537385</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>165375.7390424566</v>
       </c>
       <c r="D4" t="n">
-        <v>165375.7390424566</v>
+        <v>165375.7390424567</v>
       </c>
       <c r="E4" t="n">
-        <v>32409.76799618241</v>
+        <v>43077.56596046206</v>
       </c>
       <c r="F4" t="n">
-        <v>32409.76799618241</v>
+        <v>43077.56596046206</v>
       </c>
       <c r="G4" t="n">
         <v>43748.40045389557</v>
       </c>
       <c r="H4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="I4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="J4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="K4" t="n">
         <v>43748.40045389556</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="M4" t="n">
+        <v>43748.40045389558</v>
+      </c>
+      <c r="N4" t="n">
         <v>43748.40045389556</v>
       </c>
-      <c r="J4" t="n">
-        <v>43748.40045389556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>43748.40045389558</v>
-      </c>
-      <c r="L4" t="n">
-        <v>43748.40045389556</v>
-      </c>
-      <c r="M4" t="n">
-        <v>43748.40045389556</v>
-      </c>
-      <c r="N4" t="n">
-        <v>43748.40045389557</v>
-      </c>
       <c r="O4" t="n">
-        <v>32409.76799618241</v>
+        <v>43077.56596046205</v>
       </c>
       <c r="P4" t="n">
-        <v>32409.76799618241</v>
+        <v>43077.56596046206</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11516.85588680772</v>
+        <v>-11516.85588680767</v>
       </c>
       <c r="C6" t="n">
-        <v>174887.8775279294</v>
+        <v>174887.8775279295</v>
       </c>
       <c r="D6" t="n">
-        <v>174887.8775279295</v>
+        <v>174887.8775279293</v>
       </c>
       <c r="E6" t="n">
-        <v>134834.6048747154</v>
+        <v>60836.74893063604</v>
       </c>
       <c r="F6" t="n">
-        <v>210165.5560281778</v>
+        <v>268269.0365471968</v>
       </c>
       <c r="G6" t="n">
-        <v>143032.4197423475</v>
+        <v>264297.1974704068</v>
       </c>
       <c r="H6" t="n">
         <v>271922.8195538882</v>
       </c>
       <c r="I6" t="n">
-        <v>271922.8195538879</v>
+        <v>271922.819553888</v>
       </c>
       <c r="J6" t="n">
         <v>126389.1496190715</v>
       </c>
       <c r="K6" t="n">
+        <v>271922.8195538879</v>
+      </c>
+      <c r="L6" t="n">
         <v>271922.8195538881</v>
       </c>
-      <c r="L6" t="n">
-        <v>271922.8195538879</v>
-      </c>
       <c r="M6" t="n">
-        <v>209048.8825885142</v>
+        <v>98792.3283482484</v>
       </c>
       <c r="N6" t="n">
         <v>271922.8195538881</v>
       </c>
       <c r="O6" t="n">
-        <v>210165.5560281778</v>
+        <v>268269.0365471968</v>
       </c>
       <c r="P6" t="n">
-        <v>210165.5560281778</v>
+        <v>268269.0365471967</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,19 +27381,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>371.3345117074836</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27430,13 +27432,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>342.9323154271057</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>40.31706800555236</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>58.60684960120378</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -27676,13 +27678,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>342.9323154271054</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>196.1965332168822</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>158.4132499202489</v>
       </c>
       <c r="V7" t="n">
-        <v>252.129151462408</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,17 +27855,17 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="F8" t="n">
-        <v>201.9824129405222</v>
-      </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>273.7967702455326</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>163.0447290920667</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>60.7340217235195</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,13 +28070,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>73.0615585410419</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>75.42597529544652</v>
+      </c>
+      <c r="O3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>238.1458997847904</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>415.010189472638</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.42597529544646</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>155.2981118204435</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35100,7 +35102,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366176</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>73.06155854104185</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="P8" t="n">
-        <v>415.010189472638</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,16 +35257,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>440.0596680121639</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>657.1153558257613</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>808.5268812099018</v>
+        <v>998.3684688400139</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>294.9982839840495</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>214.3617860522075</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>60.42551312270595</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,7 +35731,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>421.9809006205731</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35893,16 +35895,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>62.48282579338804</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>395.492576038645</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>205.0592278086264</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>191.6381265752677</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.1971664929786</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36367,19 +36369,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>333.1613907719473</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,7 +36837,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36844,13 +36846,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>200.7306752811501</v>
+        <v>679.0534713570016</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>17.02841056777183</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37081,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P32" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37321,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>726.6390748562018</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37549,10 +37551,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>238.7351072494335</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37564,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37783,16 +37785,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>400.9579414823509</v>
+        <v>830.3174788543397</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>360.2494418178196</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>47.34186611575466</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>718.8757555570357</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>400.9579414823509</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>209.9034401867719</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>808.5268812099018</v>
+        <v>981.7058813107097</v>
       </c>
       <c r="O45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1550419.466836556</v>
+        <v>1549701.476721698</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602537</v>
+        <v>11857191.11602536</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760742</v>
+        <v>698313.6830760739</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>49.53842828501017</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>50.77901812020955</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +822,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>51.58543740429482</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>218.775754413495</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -898,7 +898,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>363.0912653630554</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -952,19 +952,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.0873641277763</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>12.06219323947333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>118.9693540944499</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1119,7 +1119,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1141,10 +1141,10 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -1153,7 +1153,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>80.11775047948045</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>214.6508201146561</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1302,7 +1302,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>7.098427391118505</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1311,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>213.8764542074653</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>307.6778494116822</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1390,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>319.0033075096875</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1536,7 +1536,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>111.3190970511839</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>48.06962187630688</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>314.6596914499</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>327.8597686516896</v>
       </c>
     </row>
     <row r="15">
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59.70406721933355</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1782,7 +1782,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>10.59003596848357</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1855,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -2010,10 +2010,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>113.9811728869526</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>4.250061189173659</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2143,7 +2143,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>26.18498741436088</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>221.5389288874897</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>111.1800590294273</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>110.6104701467503</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2715,16 +2715,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>105.5216215482644</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>135.7468035496482</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>22.80965593263509</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>154.5259717924262</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3189,16 +3189,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>60.15466974967032</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>112.2192622328896</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>173.1455268812269</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3517,7 +3517,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
@@ -3669,19 +3669,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>238.0472340876699</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3726,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>167.1139783974527</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>29.89949249262188</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>147.7993290726188</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>106.7228969293686</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3957,13 +3957,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>71.78780711257758</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>307.6778494116822</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>49.87597792716532</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>187.21057685784</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>966.965586482338</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C2" t="n">
-        <v>540.0648564956382</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D2" t="n">
-        <v>520.8126397210425</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E2" t="n">
-        <v>94.83569986890006</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G2" t="n">
         <v>44.49822504924753</v>
@@ -4333,25 +4333,25 @@
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>407.101683866143</v>
+        <v>455.3583126271592</v>
       </c>
       <c r="L2" t="n">
-        <v>957.7672188505812</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M2" t="n">
-        <v>1508.432753835019</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N2" t="n">
-        <v>1508.432753835019</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O2" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
@@ -4360,22 +4360,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1745.630772103422</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1388.141357229671</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>991.7500075300184</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X2" t="n">
-        <v>984.0704127381697</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y2" t="n">
-        <v>982.7735467334641</v>
+        <v>2165.939720175367</v>
       </c>
     </row>
     <row r="3">
@@ -4415,19 +4415,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L3" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="M3" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="N3" t="n">
         <v>595.1637600336857</v>
       </c>
-      <c r="M3" t="n">
-        <v>595.1637600336857</v>
-      </c>
-      <c r="N3" t="n">
-        <v>669.8354755761777</v>
-      </c>
       <c r="O3" t="n">
-        <v>1220.501010560616</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q3" t="n">
         <v>1771.166545545054</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
         <v>1807.311910299714</v>
@@ -4518,22 +4518,22 @@
         <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>2007.737591668685</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1786.751981150003</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1786.751981150003</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>972.9074190595574</v>
+        <v>1316.805947015338</v>
       </c>
       <c r="C5" t="n">
         <v>950.0470931132616</v>
@@ -4567,28 +4567,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O5" t="n">
-        <v>1768.825772958194</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4600,19 +4600,19 @@
         <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.98568150701</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V5" t="n">
-        <v>2003.98568150701</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="W5" t="n">
-        <v>1607.594331807357</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="X5" t="n">
-        <v>1195.874332975104</v>
+        <v>1333.910773271169</v>
       </c>
       <c r="Y5" t="n">
-        <v>988.7153793106834</v>
+        <v>1332.613907266464</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>602.6104029955975</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>756.3555336978366</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N6" t="n">
-        <v>756.3555336978366</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>756.3555336978366</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
         <v>1307.021068682275</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>645.7643351504313</v>
+        <v>558.1798004659329</v>
       </c>
       <c r="C7" t="n">
-        <v>473.7917720293473</v>
+        <v>386.2072373448489</v>
       </c>
       <c r="D7" t="n">
-        <v>310.474999156118</v>
+        <v>222.8904644716196</v>
       </c>
       <c r="E7" t="n">
-        <v>144.2667933089716</v>
+        <v>56.68225862447312</v>
       </c>
       <c r="F7" t="n">
-        <v>144.2667933089716</v>
+        <v>56.68225862447312</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4734,43 +4734,43 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462377</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1981.571904688276</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U7" t="n">
-        <v>1861.400839946408</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V7" t="n">
-        <v>1579.689372554437</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W7" t="n">
-        <v>1304.83696872695</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X7" t="n">
-        <v>1062.273072172755</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="Y7" t="n">
-        <v>835.9303038624969</v>
+        <v>748.3457691779986</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1235.878926328994</v>
+        <v>1270.775797585523</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.018600382698</v>
+        <v>1247.915471639227</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.766383608102</v>
+        <v>1228.663254864631</v>
       </c>
       <c r="E8" t="n">
-        <v>767.7894437559598</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,49 +4807,49 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>116.829168004879</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>116.829168004879</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>667.4947029893171</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1218.160237973755</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1218.160237973755</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1745.630772103422</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V8" t="n">
-        <v>1664.703751417078</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W8" t="n">
-        <v>1664.703751417078</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="X8" t="n">
-        <v>1252.983752584825</v>
+        <v>1287.880623841354</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.68688658012</v>
+        <v>1286.583757836649</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132769</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>1417.526784297715</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1417.526784297715</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>962.9877020259423</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C10" t="n">
-        <v>791.0151389048583</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D10" t="n">
-        <v>627.698366031629</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E10" t="n">
-        <v>461.4901601844825</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4992,22 +4992,22 @@
         <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1654.348842875753</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W10" t="n">
-        <v>1379.496439048266</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X10" t="n">
-        <v>1379.496439048266</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y10" t="n">
-        <v>1153.153670738008</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2538.475729536478</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C11" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D11" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E11" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F11" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G11" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H11" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I11" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L11" t="n">
-        <v>1029.701992498267</v>
+        <v>896.2443403489199</v>
       </c>
       <c r="M11" t="n">
-        <v>2018.08677664988</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N11" t="n">
-        <v>2994.337835136581</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>3839.482485287394</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>4547.761764445321</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
         <v>5003.847243949504</v>
@@ -5080,13 +5080,13 @@
         <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>3666.318704890286</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X11" t="n">
-        <v>3254.598706058034</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y11" t="n">
-        <v>2849.261436012924</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="L12" t="n">
-        <v>819.4496289866299</v>
+        <v>379.221077120493</v>
       </c>
       <c r="M12" t="n">
-        <v>819.4496289866299</v>
+        <v>379.221077120493</v>
       </c>
       <c r="N12" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="O12" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="P12" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q12" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R12" t="n">
         <v>1908.7645754595</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1183.258067403227</v>
+        <v>1017.04986155608</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.285504282143</v>
+        <v>845.0772984349965</v>
       </c>
       <c r="D13" t="n">
-        <v>847.9687314089136</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="E13" t="n">
         <v>681.7605255617672</v>
@@ -5223,28 +5223,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498426</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724326</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U13" t="n">
-        <v>1819.976963724326</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V13" t="n">
-        <v>1538.265496332355</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="W13" t="n">
-        <v>1425.821963957422</v>
+        <v>1482.113772190835</v>
       </c>
       <c r="X13" t="n">
-        <v>1183.258067403227</v>
+        <v>1433.558598578404</v>
       </c>
       <c r="Y13" t="n">
-        <v>1183.258067403227</v>
+        <v>1207.215830268146</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2429.413071721394</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C14" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D14" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E14" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F14" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G14" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H14" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I14" t="n">
         <v>100.0769448789901</v>
@@ -5281,19 +5281,19 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1392.305451315162</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2396.59155273422</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>3372.842611220921</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O14" t="n">
-        <v>4217.987261371733</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="P14" t="n">
         <v>4430.205429563419</v>
@@ -5323,7 +5323,7 @@
         <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>2849.261436012924</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K15" t="n">
-        <v>690.5618714473296</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L15" t="n">
-        <v>690.5618714473296</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M15" t="n">
-        <v>690.5618714473296</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N15" t="n">
-        <v>690.5618714473296</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O15" t="n">
-        <v>690.5618714473296</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P15" t="n">
         <v>1362.599788512017</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>867.4892357902974</v>
+        <v>720.6338262197769</v>
       </c>
       <c r="C16" t="n">
-        <v>867.4892357902974</v>
+        <v>548.6612630986929</v>
       </c>
       <c r="D16" t="n">
-        <v>704.1724629170681</v>
+        <v>548.6612630986929</v>
       </c>
       <c r="E16" t="n">
-        <v>537.9642570699216</v>
+        <v>548.6612630986929</v>
       </c>
       <c r="F16" t="n">
-        <v>366.102482844482</v>
+        <v>376.7994888732533</v>
       </c>
       <c r="G16" t="n">
-        <v>199.8455131387141</v>
+        <v>210.5425191674854</v>
       </c>
       <c r="H16" t="n">
         <v>199.8455131387141</v>
@@ -5466,22 +5466,22 @@
         <v>2233.451358979291</v>
       </c>
       <c r="T16" t="n">
-        <v>2233.451358979291</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U16" t="n">
-        <v>1953.266910479596</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V16" t="n">
-        <v>1671.555443087625</v>
+        <v>1428.216095313524</v>
       </c>
       <c r="W16" t="n">
-        <v>1396.703039260138</v>
+        <v>1153.363691486037</v>
       </c>
       <c r="X16" t="n">
-        <v>1154.139142705943</v>
+        <v>910.7997949318425</v>
       </c>
       <c r="Y16" t="n">
-        <v>927.7963743956848</v>
+        <v>910.7997949318425</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
         <v>839.4070255988738</v>
@@ -5524,13 +5524,13 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
         <v>4541.493855905342</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>772.98449592559</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>772.98449592559</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M18" t="n">
-        <v>1828.971033901635</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N18" t="n">
-        <v>1828.971033901635</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O18" t="n">
-        <v>1828.971033901635</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>552.7245472657505</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C19" t="n">
-        <v>380.7519841446665</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D19" t="n">
-        <v>217.4352112714372</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E19" t="n">
-        <v>217.4352112714372</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F19" t="n">
         <v>102.3027134058285</v>
@@ -5709,16 +5709,16 @@
         <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1537.725292651294</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.8905159778161</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5752,19 +5752,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O20" t="n">
         <v>3833.214576747414</v>
@@ -5791,13 +5791,13 @@
         <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5846,13 +5846,13 @@
         <v>1191.617659878699</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>603.8002552472883</v>
+        <v>1013.622061704626</v>
       </c>
       <c r="C22" t="n">
-        <v>431.8276921262043</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="D22" t="n">
-        <v>268.510919252975</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5940,22 +5940,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="W22" t="n">
-        <v>1036.530120513549</v>
+        <v>1508.978208805807</v>
       </c>
       <c r="X22" t="n">
-        <v>793.966223959354</v>
+        <v>1266.414312251612</v>
       </c>
       <c r="Y22" t="n">
-        <v>793.966223959354</v>
+        <v>1040.071543941354</v>
       </c>
     </row>
     <row r="23">
@@ -5998,19 +5998,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3114.325629236558</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O23" t="n">
-        <v>3959.47027938737</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P23" t="n">
-        <v>4667.749558545297</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>381.4468456473314</v>
+        <v>264.5188794419536</v>
       </c>
       <c r="K24" t="n">
-        <v>381.4468456473314</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="L24" t="n">
-        <v>475.3442790273841</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M24" t="n">
-        <v>475.3442790273841</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
-        <v>475.3442790273841</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>552.7245472657505</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C25" t="n">
-        <v>552.7245472657505</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="D25" t="n">
-        <v>440.421457337036</v>
+        <v>380.2386668759551</v>
       </c>
       <c r="E25" t="n">
-        <v>440.421457337036</v>
+        <v>214.0304610288087</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>214.0304610288087</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.8905159778161</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="26">
@@ -6229,10 +6229,10 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690843</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M26" t="n">
         <v>2011.818868109901</v>
@@ -6311,19 +6311,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N27" t="n">
-        <v>1112.773316863137</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O27" t="n">
-        <v>1112.773316863137</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
         <v>1828.971033901635</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>431.8276921262043</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8276921262043</v>
+        <v>380.7519841446665</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
         <v>102.3027134058285</v>
@@ -6426,10 +6426,10 @@
         <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>848.3364291485279</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y28" t="n">
-        <v>621.99366083827</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="29">
@@ -6469,13 +6469,13 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2184.700581617281</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3160.951640103982</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O29" t="n">
         <v>3833.214576747414</v>
@@ -6545,25 +6545,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N30" t="n">
-        <v>1112.773316863137</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O30" t="n">
-        <v>1112.773316863137</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P30" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.8870954416583</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="C31" t="n">
-        <v>587.9145323205743</v>
+        <v>396.9731123886033</v>
       </c>
       <c r="D31" t="n">
-        <v>424.597759447345</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="E31" t="n">
-        <v>258.3895536001985</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6651,22 +6651,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2065.542080025265</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1785.357631525569</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1503.646164133598</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1228.793760306111</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>986.2298637519162</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y31" t="n">
-        <v>759.8870954416583</v>
+        <v>759.1116442217531</v>
       </c>
     </row>
     <row r="32">
@@ -6712,16 +6712,16 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O32" t="n">
-        <v>4289.300056251597</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6782,25 +6782,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N33" t="n">
-        <v>648.6278400003578</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O33" t="n">
-        <v>648.6278400003578</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P33" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>326.3817789554925</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>163.0650060822632</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>163.0650060822632</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>163.0650060822632</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0650060822632</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>163.0650060822632</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6943,19 +6943,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
         <v>5115.135670291427</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>971.931772215671</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L36" t="n">
-        <v>971.931772215671</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M36" t="n">
-        <v>971.931772215671</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N36" t="n">
-        <v>971.931772215671</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O36" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.604840768015</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="C37" t="n">
-        <v>481.632277646931</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D37" t="n">
-        <v>481.632277646931</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E37" t="n">
-        <v>315.4240717997845</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F37" t="n">
-        <v>315.4240717997845</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7125,22 +7125,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U37" t="n">
-        <v>1869.241345563992</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V37" t="n">
-        <v>1587.529878172021</v>
+        <v>1657.501773241197</v>
       </c>
       <c r="W37" t="n">
-        <v>1312.677474344533</v>
+        <v>1382.64936941371</v>
       </c>
       <c r="X37" t="n">
-        <v>1070.113577790339</v>
+        <v>1140.085472859515</v>
       </c>
       <c r="Y37" t="n">
-        <v>843.7708094800807</v>
+        <v>913.7427045492574</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
         <v>435.0679631883225</v>
@@ -7174,25 +7174,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q38" t="n">
         <v>4997.579335409525</v>
@@ -7256,25 +7256,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>609.4538236255814</v>
+        <v>869.8257932127802</v>
       </c>
       <c r="C40" t="n">
-        <v>437.4812605044974</v>
+        <v>697.8532300916962</v>
       </c>
       <c r="D40" t="n">
-        <v>274.1644876312681</v>
+        <v>534.5364572184669</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7362,22 +7362,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1825.090328421558</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U40" t="n">
-        <v>1825.090328421558</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V40" t="n">
-        <v>1543.378861029587</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W40" t="n">
-        <v>1268.5264572021</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X40" t="n">
-        <v>1025.962560647905</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="Y40" t="n">
-        <v>799.6197923376471</v>
+        <v>1059.991761924846</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2538.475729536478</v>
+        <v>2533.780365848253</v>
       </c>
       <c r="C41" t="n">
-        <v>2111.574999549778</v>
+        <v>2106.879635861554</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.282378734778</v>
+        <v>1683.587015046554</v>
       </c>
       <c r="E41" t="n">
-        <v>1262.305438882635</v>
+        <v>1257.610075194411</v>
       </c>
       <c r="F41" t="n">
-        <v>837.1812570720355</v>
+        <v>832.4858933838116</v>
       </c>
       <c r="G41" t="n">
-        <v>432.8421946614841</v>
+        <v>428.1468309732602</v>
       </c>
       <c r="H41" t="n">
-        <v>134.9738161355189</v>
+        <v>130.278452447295</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2749.496401892824</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>3725.747460379525</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>4547.761764445321</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>4547.761764445321</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
         <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4899.479949822645</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.554378867278</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U41" t="n">
-        <v>4529.262127278774</v>
+        <v>4524.566763590549</v>
       </c>
       <c r="V41" t="n">
-        <v>4171.772712405023</v>
+        <v>4167.077348716799</v>
       </c>
       <c r="W41" t="n">
-        <v>3775.38136270537</v>
+        <v>3770.685999017146</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.661363873117</v>
+        <v>3358.966000184893</v>
       </c>
       <c r="Y41" t="n">
-        <v>2958.324093828008</v>
+        <v>2953.628730139784</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>690.5618714473296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>690.5618714473296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>690.5618714473296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N42" t="n">
-        <v>1779.8768179202</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="O42" t="n">
-        <v>1826.745265374797</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P42" t="n">
-        <v>1826.745265374797</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q42" t="n">
         <v>1826.745265374797</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3906.615339060613</v>
+        <v>371.1946237414806</v>
       </c>
       <c r="C43" t="n">
-        <v>3734.642775939529</v>
+        <v>263.3937177522194</v>
       </c>
       <c r="D43" t="n">
-        <v>3571.3260030663</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="E43" t="n">
-        <v>3405.117797219153</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="F43" t="n">
-        <v>3233.256022993713</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G43" t="n">
-        <v>3066.999053287946</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>2923.2027847961</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>5003.847243949504</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T43" t="n">
-        <v>4760.507896175404</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U43" t="n">
-        <v>4480.323447675709</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V43" t="n">
-        <v>4407.810511198358</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W43" t="n">
-        <v>4132.95810737087</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X43" t="n">
-        <v>4132.95810737087</v>
+        <v>787.7033607638042</v>
       </c>
       <c r="Y43" t="n">
-        <v>3906.615339060613</v>
+        <v>561.3605924535462</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2538.475729536478</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C44" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D44" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F44" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G44" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H44" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I44" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>811.7639428804554</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1741.388990499732</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2745.67509191879</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
-        <v>3721.926150405491</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
         <v>3721.926150405491</v>
@@ -7675,25 +7675,25 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>4899.479949822645</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T44" t="n">
-        <v>4678.554378867278</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U44" t="n">
-        <v>4420.19946946369</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V44" t="n">
-        <v>4062.710054589939</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W44" t="n">
-        <v>3666.318704890286</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X44" t="n">
-        <v>3254.598706058034</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y44" t="n">
-        <v>2849.261436012924</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>3195.159613368996</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>3195.159613368996</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K45" t="n">
-        <v>3195.159613368996</v>
+        <v>379.221077120493</v>
       </c>
       <c r="L45" t="n">
-        <v>4031.958421451902</v>
+        <v>379.221077120493</v>
       </c>
       <c r="M45" t="n">
-        <v>4031.958421451902</v>
+        <v>379.221077120493</v>
       </c>
       <c r="N45" t="n">
-        <v>5003.847243949504</v>
+        <v>379.221077120493</v>
       </c>
       <c r="O45" t="n">
-        <v>5003.847243949504</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P45" t="n">
-        <v>5003.847243949504</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q45" t="n">
-        <v>5003.847243949504</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3571.3260030663</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C46" t="n">
-        <v>3571.3260030663</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D46" t="n">
-        <v>3571.3260030663</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E46" t="n">
-        <v>3405.117797219153</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F46" t="n">
-        <v>3233.256022993713</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G46" t="n">
-        <v>3066.999053287946</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>2923.2027847961</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>4956.808630636678</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>4786.673583155813</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T46" t="n">
-        <v>4543.334235381712</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U46" t="n">
-        <v>4354.232642596015</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V46" t="n">
-        <v>4072.521175204045</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W46" t="n">
-        <v>3797.668771376558</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X46" t="n">
-        <v>3797.668771376558</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y46" t="n">
-        <v>3571.3260030663</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>84.50867025038121</v>
       </c>
       <c r="L2" t="n">
         <v>594.539855548217</v>
@@ -7990,19 +7990,19 @@
         <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>300.4142109955939</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,13 +8063,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>96.76900350898819</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
         <v>579.3997028378163</v>
@@ -8078,7 +8078,7 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>98.17301358442491</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>300.4142109955939</v>
+        <v>547.9365584046775</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>177.8131985346731</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>460.1807970851423</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
@@ -8312,7 +8312,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
@@ -8382,7 +8382,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>417.7126065281034</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8455,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>108.8261593358512</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>452.5855512828693</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
@@ -8540,22 +8540,22 @@
         <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>185.9167539104602</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>461.8305092169925</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3272420480539</v>
+        <v>476.2554127892232</v>
       </c>
       <c r="M11" t="n">
-        <v>1035.799731739446</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8713,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>1121.661155963915</v>
+        <v>1014.65485790195</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8789,10 +8789,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
@@ -8941,10 +8941,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>251.9371478624388</v>
+        <v>382.8829480395223</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>618.848654609434</v>
@@ -9023,7 +9023,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>700.5970200580485</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
@@ -9172,16 +9172,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>625.182225377852</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>417.8918098719783</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>528.4187726313924</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,13 +9409,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>304.4845953330648</v>
+        <v>791.8999401147988</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
@@ -9494,16 +9494,16 @@
         <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>26.37892716579976</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>196.7283130837754</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,10 +9646,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9658,10 +9658,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>369.2860653765454</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>184.4658275011364</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>117.3609790173131</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,13 +9877,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>583.8722719747271</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9959,13 +9959,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>574.3586489309258</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1042.020405443146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -9974,7 +9974,7 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10117,16 +10117,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>716.4444307130257</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
@@ -10193,7 +10193,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -10202,19 +10202,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1042.020405443146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P30" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10360,19 +10360,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>882.1738474735962</v>
       </c>
       <c r="O32" t="n">
-        <v>238.1216346371742</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
@@ -10439,10 +10439,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>573.1865904302379</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P33" t="n">
         <v>745.2028786174529</v>
@@ -10451,7 +10451,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,10 +10591,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>995.9774475394116</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
         <v>618.848654609434</v>
@@ -10679,16 +10679,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>420.03429863453</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10834,16 +10834,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>276.0147300838795</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>236.8553498857486</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10904,7 +10904,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10913,19 +10913,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,22 +11068,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
-        <v>867.7084382103637</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11150,16 +11150,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>70.51375583797689</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>754.6403563518451</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1003.048909524251</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980063</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>107.9720312369325</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>73.42412869296908</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>160.7847827380282</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>192.068635712346</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>73.42412869296896</v>
       </c>
     </row>
     <row r="15">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>128.5602418056114</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>131.7682698384436</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>56.16198359623262</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>274.6442915288777</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>162.0793216105841</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>50.56495090172237</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,16 +24369,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>50.50354611506967</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>53.98392986195985</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>56.1619835962326</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>104.3914540390047</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>138.8739492118619</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>15.61718469075893</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24858,7 +24858,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25095,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>38.61621282745647</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>52.37513777582056</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>105.7488258368245</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831814</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.858720208689135</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>56.96536222970272</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>4.648410051341621</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>107.972031236933</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>63.52994056050457</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>207.1065456054738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>107.9720312369325</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>118.5577190788912</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>90.17202715685875</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>623398.2802415738</v>
+        <v>623398.2802415736</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>633080.2634882717</v>
+        <v>633080.2634882719</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>633080.2634882717</v>
+        <v>633080.2634882719</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>633080.2634882717</v>
+        <v>633080.2634882719</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>633080.2634882719</v>
+        <v>633080.2634882717</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>633080.2634882719</v>
+        <v>633080.2634882717</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>633080.2634882717</v>
+        <v>633080.263488272</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>623398.2802415737</v>
+        <v>623398.2802415738</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>623398.2802415738</v>
+        <v>623398.2802415736</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>407709.8676078142</v>
       </c>
       <c r="D2" t="n">
-        <v>407709.8676078141</v>
+        <v>407709.8676078143</v>
       </c>
       <c r="E2" t="n">
         <v>387405.0806156915</v>
@@ -26328,10 +26328,10 @@
         <v>387405.0806156913</v>
       </c>
       <c r="G2" t="n">
-        <v>393421.2821962135</v>
+        <v>393421.2821962134</v>
       </c>
       <c r="H2" t="n">
-        <v>393421.2821962135</v>
+        <v>393421.2821962134</v>
       </c>
       <c r="I2" t="n">
         <v>393421.2821962133</v>
@@ -26340,22 +26340,22 @@
         <v>393421.2821962133</v>
       </c>
       <c r="K2" t="n">
-        <v>393421.2821962131</v>
+        <v>393421.2821962133</v>
       </c>
       <c r="L2" t="n">
-        <v>393421.2821962133</v>
+        <v>393421.2821962132</v>
       </c>
       <c r="M2" t="n">
         <v>393421.2821962132</v>
       </c>
       <c r="N2" t="n">
-        <v>393421.2821962133</v>
+        <v>393421.2821962134</v>
       </c>
       <c r="O2" t="n">
-        <v>387405.0806156913</v>
+        <v>387405.0806156915</v>
       </c>
       <c r="P2" t="n">
-        <v>387405.0806156912</v>
+        <v>387405.0806156914</v>
       </c>
     </row>
     <row r="3">
@@ -26423,7 +26423,7 @@
         <v>165375.7390424566</v>
       </c>
       <c r="D4" t="n">
-        <v>165375.7390424567</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
         <v>43077.56596046206</v>
@@ -26432,7 +26432,7 @@
         <v>43077.56596046206</v>
       </c>
       <c r="G4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="H4" t="n">
         <v>43748.40045389557</v>
@@ -26444,19 +26444,19 @@
         <v>43748.40045389557</v>
       </c>
       <c r="K4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="L4" t="n">
         <v>43748.40045389557</v>
       </c>
       <c r="M4" t="n">
-        <v>43748.40045389558</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="N4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="O4" t="n">
-        <v>43077.56596046205</v>
+        <v>43077.56596046206</v>
       </c>
       <c r="P4" t="n">
         <v>43077.56596046206</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11516.85588680767</v>
+        <v>-11516.85588680772</v>
       </c>
       <c r="C6" t="n">
         <v>174887.8775279295</v>
       </c>
       <c r="D6" t="n">
-        <v>174887.8775279293</v>
+        <v>174887.8775279295</v>
       </c>
       <c r="E6" t="n">
-        <v>60836.74893063604</v>
+        <v>60764.23183423559</v>
       </c>
       <c r="F6" t="n">
-        <v>268269.0365471968</v>
+        <v>268196.5194507962</v>
       </c>
       <c r="G6" t="n">
-        <v>264297.1974704068</v>
+        <v>264246.1668082224</v>
       </c>
       <c r="H6" t="n">
-        <v>271922.8195538882</v>
+        <v>271871.7888917039</v>
       </c>
       <c r="I6" t="n">
-        <v>271922.819553888</v>
+        <v>271871.7888917038</v>
       </c>
       <c r="J6" t="n">
-        <v>126389.1496190715</v>
+        <v>126338.1189568873</v>
       </c>
       <c r="K6" t="n">
-        <v>271922.8195538879</v>
+        <v>271871.7888917037</v>
       </c>
       <c r="L6" t="n">
-        <v>271922.8195538881</v>
+        <v>271871.7888917036</v>
       </c>
       <c r="M6" t="n">
-        <v>98792.3283482484</v>
+        <v>98741.29768606411</v>
       </c>
       <c r="N6" t="n">
-        <v>271922.8195538881</v>
+        <v>271871.7888917038</v>
       </c>
       <c r="O6" t="n">
-        <v>268269.0365471968</v>
+        <v>268196.5194507966</v>
       </c>
       <c r="P6" t="n">
-        <v>268269.0365471967</v>
+        <v>268196.5194507965</v>
       </c>
     </row>
   </sheetData>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>371.3345117074836</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27432,22 +27432,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>350.504879224449</v>
       </c>
     </row>
     <row r="3">
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>47.18544517283196</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,16 +27590,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>58.60684960120378</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>59.54045732377745</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>196.1965332168822</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>152.5322067692368</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>158.4132499202489</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>273.7967702455326</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>192.9519787292741</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>163.0447290920667</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,19 +28064,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>65.01789851058612</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-4.484950034982556e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30392,7 +30392,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="L2" t="n">
         <v>556.2278131155941</v>
@@ -34710,19 +34710,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,13 +34783,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>75.42597529544652</v>
       </c>
       <c r="O3" t="n">
         <v>556.2278131155941</v>
@@ -34798,7 +34798,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>75.42597529544641</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>510.5455990486534</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>263.0232516395698</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>155.2981118204435</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
@@ -35102,7 +35102,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>395.1371666366176</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35175,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>73.06155854104185</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>415.010189472638</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,22 +35260,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>440.0596680121639</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>939.015199615431</v>
+        <v>437.9433703566003</v>
       </c>
       <c r="M11" t="n">
-        <v>998.3684688400139</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35433,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1100.318127750374</v>
+        <v>993.3118296884085</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
@@ -35661,10 +35661,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>214.3617860522075</v>
+        <v>345.307586229291</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>596.4494207761006</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>678.8261788532199</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
@@ -35892,16 +35892,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>587.9026025434059</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>395.492576038645</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,13 +36129,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>267.053332433633</v>
+        <v>754.4686772153671</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
@@ -36214,16 +36214,16 @@
         <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>3.207037443577533</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>174.9574718789467</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,10 +36366,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36378,10 +36378,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>333.1613907719473</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>94.84589230308353</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>548.1076711799178</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36679,13 +36679,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>82.84778796434657</v>
@@ -36837,16 +36837,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>679.0534713570016</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,19 +36922,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P30" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37080,19 +37080,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>844.8942246391501</v>
       </c>
       <c r="O32" t="n">
-        <v>200.7306752811501</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P33" t="n">
         <v>723.4320374126243</v>
@@ -37171,7 +37171,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,10 +37311,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>958.5461846399799</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>596.4494207761006</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>396.8624089123078</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37554,16 +37554,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>238.7351072494335</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>200.7306752811506</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,22 +37788,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
-        <v>830.3174788543397</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,16 +37870,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>47.34186611575466</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>82.84778796434657</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>718.8757555570357</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>981.7058813107097</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>269.8797922757841</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
